--- a/src/main/file/mondai.xlsx
+++ b/src/main/file/mondai.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="画面" sheetId="2" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="配置" sheetId="6" r:id="rId4"/>
     <sheet name="Excel" sheetId="10" r:id="rId5"/>
     <sheet name="优化" sheetId="11" r:id="rId6"/>
+    <sheet name="jqGrid" sheetId="13" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="408">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -816,6 +817,843 @@
   <si>
     <t>微服务模块设计</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jqGrid的属性很多，其实很大部分的属性，使用其默认值就可以了。但是详细了解一下属性的含义以及作用，对我们定制自己的grid是有帮助的。</t>
+  </si>
+  <si>
+    <t>以下内容描述格式是：</t>
+  </si>
+  <si>
+    <t>属性名称</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    参数值类型</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    描述内容(可能有多行)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    默认值</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    是否可修改(表示grid创建完成之后，该属性是否能够被修改。也就是说，是否grid的初始化的属性值能够被修改)</t>
+  </si>
+  <si>
+    <t>————详细属性列表————</t>
+  </si>
+  <si>
+    <t>ajaxGridOptions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    object</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    本选项用来设置全局的Ajax设置。注意：这个选项会覆盖当前所有的ajax设置，包括ajax的error、complete以及beforeSend事件。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    默认值:empty object</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    该属性可以修改</t>
+  </si>
+  <si>
+    <t>ajaxSelectOptions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    本选项用来设置select元素的ajax全局设置。在searchoptions选项或者editoptions选项属性设置中，可以通过设置dataUrl来获取生成一个select的下拉框内容的URL。jqGrid通过ajax的方式访问这个URL来自动获取可选择值。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    注意：这里要求通过dataUrl返回的结果是形如&lt;select&gt;&lt;option value =”1”&gt;One&lt;/option&gt;&lt;option value=”2”&gt;Two&lt;/option&gt;&lt;/select&gt;这种格式的字符串。当然，其实也可以直接返回1：One；2：Two这种格式的数据，但是要通过另外一个选项进行处理，处理之后还是要变成上面的字符串。比如searchOptions中，就有一个属性是buildSelect，就是用来干这事儿的。</t>
+  </si>
+  <si>
+    <t>altclass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    用来设置jqGrid的交替行的class。只有设置了altRows为true才有效。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    默认值:ui-priority-secondary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    该属性可以修改. Requires reload</t>
+  </si>
+  <si>
+    <t>altRows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    boolean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    设置jqGrid显示为斑马线样式。就是隔行用不同的背景色区分开。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    默认值:false</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    该属性可以修改. After reload</t>
+  </si>
+  <si>
+    <t>autoencode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    设置为true，会对从服务器返回的数据以及编辑模式下提交的数据进行HTML编码。比如，把小于符号转换成&amp;lt;</t>
+  </si>
+  <si>
+    <t>autowidth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    设置为true，grid的宽度会根据父元素的宽度自动重新计算。注意，这个值是在初始化的时候设定好了，如果要在运行中设置宽度，需要通过setGridWidth方法来修改。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    该属性不能修改</t>
+  </si>
+  <si>
+    <t>caption</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    设置Grid的标题.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    默认值:empty string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    该属性不能修改.Method avail.</t>
+  </si>
+  <si>
+    <t>cellLayout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    integer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    本选项设置单元格的padding + border宽度. 一般情况下不要去修改。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    默认值:5</t>
+  </si>
+  <si>
+    <t>cellEdit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    设置Cell Editing模式是否启用。</t>
+  </si>
+  <si>
+    <t>cellsubmit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    确定Cell Editing模式下，内容保存到远程服务器还是本地数组。'remote' 或者 'clientArray'。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    默认值:'remote'</t>
+  </si>
+  <si>
+    <t>cellurl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    确定Cell Editing模式下，访问的URL。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    默认值:null</t>
+  </si>
+  <si>
+    <t>colModel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    重要的属性。用来设置列名称。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    默认值:empty array</t>
+  </si>
+  <si>
+    <t>colNames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    array[]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    重要的属性。用来设置Grid每一个列的属性，一个列作为一个数组元素设置。Name属性是必须的。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    注意：这里的数组长度（也就是列数）必须和colModel数组的长度一致。更详细的内容，需要单独说明。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    默认值:empty array[]</t>
+  </si>
+  <si>
+    <t>datastr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    如果datatype属性设置为xmlstring或者jsonstring的情况下，本属性用来设置其值。</t>
+  </si>
+  <si>
+    <t>datatype</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    确定grid中显示的数据源格式。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    xml – xml数据; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    xmlstring – 被当做字符串的xml数据； </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    json – JSON格式数据 ； </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    jsonstring – 被当做字符串的JSON数据； </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    local – 定义在客户端的数组数据；</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    javascript – javascript的数据 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    function – 客户定义函数用来获取数据；</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    默认值:xml</t>
+  </si>
+  <si>
+    <t>deselectAfterSort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    只有当datatype设置为local才有效。当排序之后，是否重新选择排序之前选中的行(多行)。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    默认值:true</t>
+  </si>
+  <si>
+    <t>direction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    确定grid中文本显示的方向。默认ltr表示从左道右。还有一个可选值是rtl表示从右到左。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    本选项只在FireFox 3.x和IE &gt;=6的浏览器有效。当前Safai和Google Chrome、Opera不完全支持“rtl”。FireFox默认设置是不支持RTL的，但是可以通过修改FireFox的layout.scrollbar.side设置为1来支持。本属性是在jqGrid v3.6版本中新增加的。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    默认值:ltr</t>
+  </si>
+  <si>
+    <t>editurl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    设置编辑的URL地址。</t>
+  </si>
+  <si>
+    <t>emptyrecords</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    设置当查询记录条数是0的情况下，jqGrid上显示的信息。只有当viewrecords选项设置为true才有效。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    默认值:see lang file</t>
+  </si>
+  <si>
+    <t>ExpandColClick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    设置为true，当我们点击treeGrid的文本时候，会展开或者收缩内容</t>
+  </si>
+  <si>
+    <t>ExpandColumn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    制定到底那一列(colModel的name名称来指定)用来展开树形grid.如果没有设置，默认是第一列。只有当treeGrid选项设置为true才有效。</t>
+  </si>
+  <si>
+    <t>footerrow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    如果设置为true，则会在grid的底部，导航条之上显示一个只有一行的table。列的数量和colModel定义的数量一致。</t>
+  </si>
+  <si>
+    <t>forceFit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    如果设置为true，并且用户改变了列宽度，那么右边临近的列宽度会自动调整以适应grid的整体宽度。这种情况下，是没有水平滚动条的。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    注意：本选项与shrinkToFit选项不相容。如果shrinkToFit设置为false，那么forceFit的设置将被忽略。</t>
+  </si>
+  <si>
+    <t>gridstate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    设置grid的状态。有两个可选值'visible'和'hidden'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    默认值:visible</t>
+  </si>
+  <si>
+    <t>gridview</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    在包括jqGrid v3.4.X之前的版本中，读取大数据集会存在速度问题。主要原因就是每一个单元格都是用了5-6条jQuery调用被插入到grid中。现在我们可以通过设置gridview 选项为true来解决这个问题。这时候，我们用一个jQuery追加一次插入整行的数据。比以前快了3-5倍。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    当然，使用也有限制，设置为true之后，不能使用treeGrid，subGrid或者afterInsertRow事件。</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    mixed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Grid的高度设置。如果设置为’100%’那么高度可以自适应。不过要注意，假设我们设置每页显示的条数是50条记录，设置height=’100%’,可能后面的一些记录显示不出来。默认情况下，grid是没有垂直滚动条的。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    默认值:150</t>
+  </si>
+  <si>
+    <t>hiddengrid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    设置为true，grid初始显示是隐藏的。隐藏情况下，数据没有加载(没有向服务器的请求)，只显示标题。当grid第一次显示的时候，才提交服务器请求并显示数据。</t>
+  </si>
+  <si>
+    <t>hidegrid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    设置grid的隐藏/显示按钮是否可用。</t>
+  </si>
+  <si>
+    <t>hoverrows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    设置为false，在grid的数据行中鼠标悬浮被禁用。</t>
+  </si>
+  <si>
+    <t>jsonReader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    定义json数据的格式描述信息。我们默认期望的数据格式是：默认的数据根节点名称是rows，当前页的名称是page……。假设我们服务器返回的数据，root的名称不是rows而是datas，page的名称不是page而是currentPage，那么可以如下重新定义jsonReader来读取数据：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    jsonReader:{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      root:”datas”,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      page:”currentPage”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    默认值:无</t>
+  </si>
+  <si>
+    <t>lastpage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    只读属性，指定请求总共可以返回多少页。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    默认值:0</t>
+  </si>
+  <si>
+    <t>lastsort</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    只读属性。指定了最后排序列。从0开始计数。</t>
+  </si>
+  <si>
+    <t>loadonce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    如果设置为true，grid只从服务器加载一次数据。加载数据完成之后，datatype就被指定为local，并且以后所有的操作都是基于客户端的操作，同时，导航功能也会被禁用。</t>
+  </si>
+  <si>
+    <t>loadtext</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    请求或者排序数据的时候，显示在页面上的等待信息内容。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    默认值:Loading…</t>
+  </si>
+  <si>
+    <t>loadui</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    本选项控制在一个ajax请求执行过程中做什么。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    disable – jqGrid的指示信息不可用。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    enable  - 显示 “Loading”信息。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    block – 可以显示“Loading”信息，同时阻止grid的所有操作直到ajax请求完成。注意，这会禁止所有的排序、导航或者任何工具条的操作。 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    默认值:enable</t>
+  </si>
+  <si>
+    <t>mtype</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    确定请求方式。“POST”或“GET”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    默认值:GET</t>
+  </si>
+  <si>
+    <t>multikey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    只有当multiselect选项设置为true的时候才有意义。定义使用哪一个键来做多选。可选值: shiftKey/altKey/ctrlKey</t>
+  </si>
+  <si>
+    <t>multiboxonly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    只有当multiselect = true时起作用，如果multiselect设置为true，那么点击行任何位置都可以选中行。当multiboxonly设置为ture之后，就只有点击行前面的checkbox才会选中行。如果点击其它没有被选中的行，那么点中的行被选择，其它行取消选择。(Yahoo模式)</t>
+  </si>
+  <si>
+    <t>multiselect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    定义grid中的数据行是否可以被多选。会在grid的最左边增加一列checkbox的选择框。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    该属性不能修改. see HOWTO</t>
+  </si>
+  <si>
+    <t>multiselectWidth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    当multiselect为true时设置multiselect列宽度</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    默认值:20</t>
+  </si>
+  <si>
+    <t>page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    设置初始的页码。这个参数会被自动添加到URL后面，传递到后台服务器处理程序中。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    默认值:1</t>
+  </si>
+  <si>
+    <t>pager</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    指定导航条对象，这里要使用jQuery的语法来指定一个实际存在的html元素对象。大部分情况下，都是指定一个div对象的ID。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    有几种方式指定：(假设div的id=nav)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    jQuery(‘#nav’)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ‘#nav’(推荐用这种方式调用)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ‘nav’</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    默认值:empty string. Currently only one pagebar is possible.</t>
+  </si>
+  <si>
+    <t>pagerpos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    确定pager在grid中的位置。默认情况下，pager被分成三个部分。一部分用来显示pager，一部分用作导航条按钮，一部分用来显示记录信息。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    默认值:center</t>
+  </si>
+  <si>
+    <t>pgbuttons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    确定是否显示pager的按钮。 </t>
+  </si>
+  <si>
+    <t>pginput</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    确定是否显示允许用户直接输入页码进行跳转的输入框。 </t>
+  </si>
+  <si>
+    <t>pgtext</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    显示关于当前页状态的信息。第一个参数是当前页码，第二个参数是总共的页数。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    默认值:See lang file</t>
+  </si>
+  <si>
+    <t>prmNames</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    定制传递到服务器上的Post数据的字段名称。默认值是：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    prmNames: {page:“page”,rows:“rows”, sort: “sidx”,order: “sord”, search:“_search”, nd:“nd”, npage:null}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    默认的情况下，上传的数据如下url所示：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     URL?page=1&amp;rows=10&amp;sidx=myindex&amp;sord=asc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    如果我们设置一下本属性{sort:”mysort”}那么实际调用的URL地址如下：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    URL?page=1&amp;rows=10&amp;mysort=myindex&amp;sord=asc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    通过这个属性的设置，可以改变字段的名称。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    默认值:none </t>
+  </si>
+  <si>
+    <t>postData</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    设置直接通过url传递到服务器的其他参数。本属性的调用方式是传递一个形如{name1:value,name2:value2…}的数组。</t>
+  </si>
+  <si>
+    <t>reccount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    只读属性。确定grid中显示的记录数量。不要把这个属性和records参数混淆了。records参数确定每页最多可以显示的数据条数。</t>
+  </si>
+  <si>
+    <t>recordpos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    确定记录条数信息在pager上面的位置。可能的值是left, center, right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    默认值:right</t>
+  </si>
+  <si>
+    <t>records</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    只读属性。确定从请求返回的记录条数。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    默认值:none</t>
+  </si>
+  <si>
+    <t>recordtext</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    显示在pager上面的信息。在viewrecords属性被设置为true时有效。只有在总数量大于0的时候才显示。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    这是一个用{n}格式化的显示字符串。其中第一个参数{0}代表记录的起始位置（grid显示的第一条记录在所有记录中的位置），第二个参数{1}表示grid最后一条记录在总记录中的位置，第三个参数{2}代表总的记录条数。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    比如：从{0}到{1}共{2}</t>
+  </si>
+  <si>
+    <t>resizeclass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    为列指定一个调整宽度时候的现实风格class。</t>
+  </si>
+  <si>
+    <t>rowList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    本参数用来为grid生成一个可供选择的调整每页显示记录条数的下拉菜单。在grid中选择修改这个值，jqGrid会用新的选择值来修改rowNum参数并传递到服务器端。可以设置的格式如 [10,20,30]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    默认值:empty array - []</t>
+  </si>
+  <si>
+    <t>rownumbers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    如果设置为true，则会在grid的左边增加一列，增加的列用来显示记录行数，记录从1开始显示。这种情况下，colModel被一个name为rn的列自动扩展。由此，我们要注意了，在我们自己定义的列中，不要使用name=’rn’这种名称。</t>
+  </si>
+  <si>
+    <t>rowNum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    设置每一个grid的页做多显示多少条记录。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    这个参数会通过url参数传递到服务器端进行分页处理。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    注意，如果你设置了页面最多显示10条记录，也就是rowNum=10，但是服务器端返回了15条记录，页面上也只会显示10条记录。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    设置本值为-1表示页面显示记录没有限制。 </t>
+  </si>
+  <si>
+    <t>rownumWidth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    如果rownumbers设置为true，本属性用来设置该列的宽度。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    默认值:25</t>
+  </si>
+  <si>
+    <t>savedRow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    只读属性。本属性用在Inline Editing和Cell Editing模式下，用来在编辑行或者单元格之前保存数据。</t>
+  </si>
+  <si>
+    <t>scroll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    boolean or integer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    创建一个动态滚动的grid。如果本属性可用，pager元素被禁用，改用垂直滚动条来动态加载数据。当设置为true时，grid会在第一次加载的时候，把所有的数据取出到客户端，当scroll被设置为一个数字，grid将只显示可见的几行数据。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    请注意，这里有一个可选的扩展参数npage传递到服务器端。如果在prmNames数组中设置了npage的值，那么grid将一次请求多页数据。所以这里服务器端的按页获取数据的方法需要特别注意处理。</t>
+  </si>
+  <si>
+    <t>scrollOffset</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    设置垂直滚动条宽度。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    默认值:18</t>
+  </si>
+  <si>
+    <t>scrollrows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    设置为true，当我们用setSelection选中记录时，grid会自动滚动到选中的行记录，让该行记录可见。假设grid有垂直滚动条，当我们在Form Editing编辑模式下修改记录，用编辑页的前后导航按钮定位记录的时候，当导航到一个隐藏的行记录的时候，grid会自动滚动以使让选中的行记录变成可见。</t>
+  </si>
+  <si>
+    <t>selarrrow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    array-[]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    只读属性。在multiselect=true的情况下，确定当前选中的所有行。数组中包含的值只是选中列的id，用逗号隔开。比如[1,3,4,5]表示选中了id为1、3、4、5的行。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    默认值:empty array []</t>
+  </si>
+  <si>
+    <t>selrow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    只读属性。最后选中行的id。如果重新排序或者进行了导航，这个值为null。（也就是没有选中任何行的意思！）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    这个属性很重要，很多时候，假设我们要对选中的行的数据进行一些处理，那么就必须要用到这个属性。大家可以看看jqGrid的Demo中有很多例子都用到这个属性。</t>
+  </si>
+  <si>
+    <t>shrinkToFit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    确定初始化时候每列的宽度的算法。如果设置为true，表示每列的宽度按照所有列设定的宽度值的和与grid设定的宽度按比例进行缩放。如果设置为false，则列宽按照colModel中设定的宽度显示。</t>
+  </si>
+  <si>
+    <t>sortable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    设置grid是否可以按照列进行排序。这个属性用到了jQuery UI的sortable插件。要确保加载了相应的文件，同时要确保下载jqGrid的时候，包含了grid.jqueryui.js包。</t>
+  </si>
+  <si>
+    <t>sortname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    当使用xml或者json数据类型时，设置默认的排序字段名称。这个参数会被增加到url上传递到服务器端。</t>
+  </si>
+  <si>
+    <t>sortorder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    当使用xml或者json数据类型时，设置默认的排序方式。可选值asc或desc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    默认值:asc</t>
+  </si>
+  <si>
+    <t>subGrid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    设置是否能使用subgrid。</t>
+  </si>
+  <si>
+    <t>subGridModel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    设置subGrid的描述信息。只在subGrid设置为true才有效。具体可设置的属性需要参考subGrid的文档。</t>
+  </si>
+  <si>
+    <t>subGridType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    允许通过一个service来加载subgrid。如果没有设置，则采用父grid的datatype。 </t>
+  </si>
+  <si>
+    <t>subGridUrl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    加载subgrid数据的url，jqGrid会把每行的id值当作参数加到url中。只有在subGrid=true是才有效。如果需要传递额外的参数，请使用subGridModel中的params选项。</t>
+  </si>
+  <si>
+    <t>subGridWidth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    设置subGrid列的宽度。 </t>
+  </si>
+  <si>
+    <t>toolbar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Grid的工具栏。数组中有两个值，第一值指示toolbar是否可用，第二个值定义了toolbar相对于body Layer的位置，可能的值包括“top”,”bottom”, “both”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    当我们设置值为[true,”both”]，会创建两个工具栏，一个在table的顶部，一个在table的底部。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    顶部的工具栏的div的id等于”t_”+grid的Id。底部的工具栏的div的id等于”tb_” +grid的Id。 注意：当只创建一个工具栏的时候，不管位置是在顶部还是底部，工具栏的div的id都等于”t_”+grid的Id。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    默认值:[false,''] </t>
+  </si>
+  <si>
+    <t>totaltime</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    只读属性。计算加载数据的时间。目前只支持加载xml以及json格式数据。从请求完成开始计算时间，到加载完最后一行记录截至。</t>
+  </si>
+  <si>
+    <t>treedatatype</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    树形grid情况下，datatype。通常与grid自身定义的datatype保持一致。很少会改变。</t>
+  </si>
+  <si>
+    <t>treeGrid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    开启或者禁用树形grid的模式。</t>
+  </si>
+  <si>
+    <t>treeGridModel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    确定treeGrid的方法。可能是nested或 adjacency </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    默认值:nested</t>
+  </si>
+  <si>
+    <t>treeIcons</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    树形grid使用的图标。默认值是{plus:'ui-icon-triangle-1-e',minus:'ui-icon-triangle-1-s',leaf:'ui-icon-radio-off'} </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    默认值：无</t>
+  </si>
+  <si>
+    <t>treeReader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    扩展grid的colModel且加在colModel定义的后面这意味着从服务器返回的数据必须包含这些字段值。</t>
+  </si>
+  <si>
+    <t>tree_root_level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    numeric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    treeGrid root元素的级别</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    请求的URL地址。</t>
+  </si>
+  <si>
+    <t>userData</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    本属性包含一些从request中获取的自定义的信息。比如不想直接显示在grid中的一些数据。</t>
+  </si>
+  <si>
+    <t>userDataOnFooter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    如果设置为true，则直接把userData中的数据显示在grid的页脚。规则是：如果userData数据包含和colModel中name一样的名字，那么userData的值就显示在该列。否则，什么都不显示。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    The rules are as follow: If the userData array contain name which is equal to those of colModel then the value is placed in that column.If there are 该属性不能修改 such values 该属性不能修改thing is palced. </t>
+  </si>
+  <si>
+    <t>viewrecords</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    确定是否显示总的记录条数。</t>
+  </si>
+  <si>
+    <t>viewsortcols</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    本参数主要用来定义出现在标题附近的排序图标的不同的外观和行为。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    参数数组的组成如下： [false,'vertical',true]. 第一个参数确定，如果所有的列排序属性都是true，是否所有的图标都能同时看到。默认值false表示只有最后排序列的图标可见。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    第二个参数确定图标的位置。可能的值是vertical 表示排序图标一个在另一个的上面。'horizontal' 表示水平放置两个图标。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    第三个参数确定鼠标点击事件功能。设置为true，表示，表示点击列标题可排序；设置为false表示只能点击图标才能排序。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    重要提示：如果设置第三个参数为false，那么必须要设置第一个参数为true，否则，排序功能可能丢失。</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    设置grid的宽度。如果本属性没有设置，则按照各个列定义在colModel中的宽度总和作为grid的宽度。如果设置了本值，则grid中每一个列的初始宽度按照shrinkToFit参数定义来确定。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    该属性不能修改. Method avail.</t>
+  </si>
+  <si>
+    <t>xmlReader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    对xml的数据格式的说明。参考jsonReader的描述。</t>
   </si>
 </sst>
 </file>
@@ -2194,7 +3032,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C17:C18"/>
     </sheetView>
   </sheetViews>
@@ -2273,4 +3111,2451 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A576"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A387" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A389" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A390" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A391" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A392" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A393" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A395" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A396" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A397" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A398" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A399" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A400" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A402" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A403" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A404" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A405" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A406" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A408" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A409" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A410" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A411" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A412" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A414" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A415" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A416" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A417" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A418" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A421" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A422" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A423" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A424" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A425" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A427" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A428" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A429" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A430" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A433" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A434" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A435" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A436" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A437" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A439" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A440" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A441" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A442" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A453" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A454" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A455" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A457" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A458" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A461" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A463" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A464" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A465" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A466" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A467" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A469" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A470" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A471" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A472" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A473" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A475" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A476" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A477" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A478" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A479" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A481" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A482" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A483" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A484" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A485" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A486" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A487" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A489" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A490" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A491" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A492" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A493" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A495" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A496" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A497" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A498" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A499" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A501" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A502" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A503" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A504" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A505" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A507" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A508" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A509" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="510" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A510" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="511" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A511" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="513" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A513" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="514" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A514" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="515" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A515" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="516" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A516" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="517" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A517" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="519" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A519" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="520" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A520" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="521" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A521" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="522" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A522" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="523" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A523" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="525" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A525" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="526" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A526" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="527" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A527" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="528" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A528" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="529" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A529" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="531" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A531" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="532" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A532" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="533" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A533" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="534" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A534" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="535" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A535" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="537" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A537" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="538" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A538" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="539" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A539" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="540" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A540" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="541" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A541" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="543" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A543" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="544" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A544" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="545" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A545" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="546" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A546" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="547" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A547" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="548" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A548" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="550" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A550" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="551" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A551" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="552" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A552" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="553" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A553" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="554" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A554" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="556" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A556" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="557" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A557" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="558" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A558" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="559" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A559" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="560" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A560" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="561" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A561" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="562" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A562" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="563" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A563" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="564" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A564" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="566" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A566" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="567" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A567" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="568" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A568" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="569" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A569" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="570" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A570" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="572" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A572" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="573" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A573" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="574" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A574" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="575" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A575" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="576" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A576" t="s">
+        <v>159</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/main/file/mondai.xlsx
+++ b/src/main/file/mondai.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="画面" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="410">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1654,6 +1654,19 @@
   </si>
   <si>
     <t xml:space="preserve">    对xml的数据格式的说明。参考jsonReader的描述。</t>
+  </si>
+  <si>
+    <t>maven</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exclusion 排除掉的包不会被打到war包里，这样可能会影响依赖该包的其他jar包的相关功能。
+A dependency B
+B dependency C
+如果A exclusion B
+C 也会被exclusion
+从A路径不会引入 B和C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2851,8 +2864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E16"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11:E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2944,10 +2957,16 @@
       </c>
       <c r="E8" s="12"/>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="6"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
+    <row r="9" spans="2:5" ht="119.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="6">
+        <v>9</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>409</v>
+      </c>
       <c r="E9" s="12"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
@@ -3117,7 +3136,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A576"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection sqref="A1:A576"/>
     </sheetView>
   </sheetViews>

--- a/src/main/file/mondai.xlsx
+++ b/src/main/file/mondai.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="画面" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="412">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1666,6 +1666,14 @@
 如果A exclusion B
 C 也会被exclusion
 从A路径不会引入 B和C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://blog.csdn.net/john1337/article/details/52885884</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>画面按回车键自动提交</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2191,8 +2199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C6:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2275,9 +2283,15 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
+      <c r="B7" s="6">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>410</v>
+      </c>
       <c r="E7" s="7"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
@@ -2864,7 +2878,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D11" sqref="D11:E11"/>
     </sheetView>
   </sheetViews>

--- a/src/main/file/mondai.xlsx
+++ b/src/main/file/mondai.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="画面" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="419">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1674,6 +1674,34 @@
   </si>
   <si>
     <t>画面按回车键自动提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>List 排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comparator.comparing(o -&gt; -o.getNotNullColumnCount());</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comparator 下的方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包装类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比较用 equals不能用==</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义注解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待研究 包裹 javax validation</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1743,7 +1771,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1753,6 +1781,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1839,7 +1873,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1891,6 +1925,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2199,7 +2236,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C6:C7"/>
     </sheetView>
   </sheetViews>
@@ -2616,10 +2653,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E25"/>
+  <dimension ref="A2:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2861,6 +2898,34 @@
       <c r="B25" s="2" t="s">
         <v>117</v>
       </c>
+    </row>
+    <row r="26" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>418</v>
+      </c>
+      <c r="C28" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/src/main/file/mondai.xlsx
+++ b/src/main/file/mondai.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="424">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1702,6 +1702,26 @@
   </si>
   <si>
     <t>待研究 包裹 javax validation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Spring 注解 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>111@DateTimeFormat(pattern = "yyyy-MM-dd HH:mm:ss")(pattern = "yyyy-MM-dd HH:mm:ss")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring功能大开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单页加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面组件化，每个页面是一个组件可以互相引用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2653,10 +2673,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E28"/>
+  <dimension ref="A2:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2926,6 +2946,25 @@
         <v>418</v>
       </c>
       <c r="C28" s="18"/>
+    </row>
+    <row r="29" spans="1:4" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>423</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/src/main/file/mondai.xlsx
+++ b/src/main/file/mondai.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="427">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1722,6 +1722,18 @@
   </si>
   <si>
     <t>页面组件化，每个页面是一个组件可以互相引用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>new TypeToken&lt;List&lt;IsvOrderDto&gt;&gt;() {}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>匿名类与泛型结合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单纯把泛型作为一个参数传进去</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2673,10 +2685,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E30"/>
+  <dimension ref="A2:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -2964,6 +2976,17 @@
       </c>
       <c r="B30" s="2" t="s">
         <v>423</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>426</v>
       </c>
     </row>
   </sheetData>
